--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.596141338348389</v>
+        <v>2.981613874435425</v>
       </c>
       <c r="B2" t="n">
-        <v>3.336360692977905</v>
+        <v>3.353335857391357</v>
       </c>
       <c r="C2" t="n">
-        <v>3.66465950012207</v>
+        <v>1.742062330245972</v>
       </c>
       <c r="D2" t="n">
-        <v>3.421409368515015</v>
+        <v>2.606368780136108</v>
       </c>
       <c r="E2" t="n">
-        <v>1.829124212265015</v>
+        <v>2.819438695907593</v>
       </c>
       <c r="F2" t="n">
-        <v>1.276367545127869</v>
+        <v>1.298131704330444</v>
       </c>
       <c r="G2" t="n">
-        <v>1.745730876922607</v>
+        <v>1.510000705718994</v>
       </c>
       <c r="H2" t="n">
-        <v>1.711499094963074</v>
+        <v>1.066694378852844</v>
       </c>
       <c r="I2" t="n">
-        <v>3.321441173553467</v>
+        <v>1.442448139190674</v>
       </c>
       <c r="J2" t="n">
-        <v>2.74259090423584</v>
+        <v>1.293885588645935</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.087192058563232</v>
+        <v>2.706648826599121</v>
       </c>
       <c r="B3" t="n">
-        <v>4.020267963409424</v>
+        <v>4.172813892364502</v>
       </c>
       <c r="C3" t="n">
-        <v>2.784322261810303</v>
+        <v>4.339130401611328</v>
       </c>
       <c r="D3" t="n">
-        <v>2.404771327972412</v>
+        <v>3.666744232177734</v>
       </c>
       <c r="E3" t="n">
-        <v>1.589561462402344</v>
+        <v>2.143717050552368</v>
       </c>
       <c r="F3" t="n">
-        <v>4.585140228271484</v>
+        <v>4.073128700256348</v>
       </c>
       <c r="G3" t="n">
-        <v>3.37113618850708</v>
+        <v>1.487107872962952</v>
       </c>
       <c r="H3" t="n">
-        <v>1.80552351474762</v>
+        <v>1.942469716072083</v>
       </c>
       <c r="I3" t="n">
-        <v>1.103771686553955</v>
+        <v>2.272298097610474</v>
       </c>
       <c r="J3" t="n">
-        <v>4.086348533630371</v>
+        <v>4.141479969024658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.875259637832642</v>
+        <v>4.108508586883545</v>
       </c>
       <c r="B4" t="n">
-        <v>2.958607912063599</v>
+        <v>4.076975345611572</v>
       </c>
       <c r="C4" t="n">
-        <v>1.470396518707275</v>
+        <v>1.874460935592651</v>
       </c>
       <c r="D4" t="n">
-        <v>1.680887937545776</v>
+        <v>2.929527997970581</v>
       </c>
       <c r="E4" t="n">
-        <v>3.401821136474609</v>
+        <v>4.029682159423828</v>
       </c>
       <c r="F4" t="n">
-        <v>4.120761394500732</v>
+        <v>3.958491563796997</v>
       </c>
       <c r="G4" t="n">
-        <v>3.437156200408936</v>
+        <v>1.670327425003052</v>
       </c>
       <c r="H4" t="n">
-        <v>2.449766397476196</v>
+        <v>1.197553038597107</v>
       </c>
       <c r="I4" t="n">
-        <v>3.694898843765259</v>
+        <v>2.879991292953491</v>
       </c>
       <c r="J4" t="n">
-        <v>2.550739288330078</v>
+        <v>2.003180265426636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.529018878936768</v>
+        <v>2.616639137268066</v>
       </c>
       <c r="B5" t="n">
-        <v>2.383102178573608</v>
+        <v>1.095615148544312</v>
       </c>
       <c r="C5" t="n">
-        <v>3.145341157913208</v>
+        <v>1.697473526000977</v>
       </c>
       <c r="D5" t="n">
-        <v>1.341018557548523</v>
+        <v>1.067320585250854</v>
       </c>
       <c r="E5" t="n">
-        <v>1.923818588256836</v>
+        <v>3.088322877883911</v>
       </c>
       <c r="F5" t="n">
-        <v>2.032382965087891</v>
+        <v>1.350271940231323</v>
       </c>
       <c r="G5" t="n">
-        <v>2.210979461669922</v>
+        <v>2.833157539367676</v>
       </c>
       <c r="H5" t="n">
-        <v>2.368285179138184</v>
+        <v>1.523371458053589</v>
       </c>
       <c r="I5" t="n">
-        <v>1.92851984500885</v>
+        <v>3.576195955276489</v>
       </c>
       <c r="J5" t="n">
-        <v>2.471012592315674</v>
+        <v>1.659817576408386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.825780987739563</v>
+        <v>1.575233221054077</v>
       </c>
       <c r="B6" t="n">
-        <v>3.129261016845703</v>
+        <v>2.616931676864624</v>
       </c>
       <c r="C6" t="n">
-        <v>1.619406461715698</v>
+        <v>4.61418342590332</v>
       </c>
       <c r="D6" t="n">
-        <v>1.888092517852783</v>
+        <v>1.274762272834778</v>
       </c>
       <c r="E6" t="n">
-        <v>4.56466007232666</v>
+        <v>4.17965030670166</v>
       </c>
       <c r="F6" t="n">
-        <v>1.735874056816101</v>
+        <v>4.204244613647461</v>
       </c>
       <c r="G6" t="n">
-        <v>3.598986387252808</v>
+        <v>4.106874465942383</v>
       </c>
       <c r="H6" t="n">
-        <v>2.785205841064453</v>
+        <v>2.072953462600708</v>
       </c>
       <c r="I6" t="n">
-        <v>4.793291568756104</v>
+        <v>4.708207130432129</v>
       </c>
       <c r="J6" t="n">
-        <v>1.575657486915588</v>
+        <v>3.388032913208008</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.981613874435425</v>
+        <v>2.107492923736572</v>
       </c>
       <c r="B2" t="n">
-        <v>3.353335857391357</v>
+        <v>1.622808456420898</v>
       </c>
       <c r="C2" t="n">
-        <v>1.742062330245972</v>
+        <v>1.232585430145264</v>
       </c>
       <c r="D2" t="n">
-        <v>2.606368780136108</v>
+        <v>4.234880447387695</v>
       </c>
       <c r="E2" t="n">
-        <v>2.819438695907593</v>
+        <v>2.231614828109741</v>
       </c>
       <c r="F2" t="n">
-        <v>1.298131704330444</v>
+        <v>1.276902437210083</v>
       </c>
       <c r="G2" t="n">
-        <v>1.510000705718994</v>
+        <v>1.849515914916992</v>
       </c>
       <c r="H2" t="n">
-        <v>1.066694378852844</v>
+        <v>3.427232265472412</v>
       </c>
       <c r="I2" t="n">
-        <v>1.442448139190674</v>
+        <v>2.497013568878174</v>
       </c>
       <c r="J2" t="n">
-        <v>1.293885588645935</v>
+        <v>2.301565647125244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.706648826599121</v>
+        <v>2.301071643829346</v>
       </c>
       <c r="B3" t="n">
-        <v>4.172813892364502</v>
+        <v>4.382142066955566</v>
       </c>
       <c r="C3" t="n">
-        <v>4.339130401611328</v>
+        <v>4.30858039855957</v>
       </c>
       <c r="D3" t="n">
-        <v>3.666744232177734</v>
+        <v>4.052573204040527</v>
       </c>
       <c r="E3" t="n">
-        <v>2.143717050552368</v>
+        <v>2.533116340637207</v>
       </c>
       <c r="F3" t="n">
-        <v>4.073128700256348</v>
+        <v>4.683649063110352</v>
       </c>
       <c r="G3" t="n">
-        <v>1.487107872962952</v>
+        <v>1.539366483688354</v>
       </c>
       <c r="H3" t="n">
-        <v>1.942469716072083</v>
+        <v>1.664129853248596</v>
       </c>
       <c r="I3" t="n">
-        <v>2.272298097610474</v>
+        <v>3.901241779327393</v>
       </c>
       <c r="J3" t="n">
-        <v>4.141479969024658</v>
+        <v>3.302790880203247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.108508586883545</v>
+        <v>4.766841411590576</v>
       </c>
       <c r="B4" t="n">
-        <v>4.076975345611572</v>
+        <v>1.715616822242737</v>
       </c>
       <c r="C4" t="n">
-        <v>1.874460935592651</v>
+        <v>1.522312879562378</v>
       </c>
       <c r="D4" t="n">
-        <v>2.929527997970581</v>
+        <v>1.305358171463013</v>
       </c>
       <c r="E4" t="n">
-        <v>4.029682159423828</v>
+        <v>4.331710815429688</v>
       </c>
       <c r="F4" t="n">
-        <v>3.958491563796997</v>
+        <v>1.220900058746338</v>
       </c>
       <c r="G4" t="n">
-        <v>1.670327425003052</v>
+        <v>3.249317407608032</v>
       </c>
       <c r="H4" t="n">
-        <v>1.197553038597107</v>
+        <v>1.140212535858154</v>
       </c>
       <c r="I4" t="n">
-        <v>2.879991292953491</v>
+        <v>2.26448392868042</v>
       </c>
       <c r="J4" t="n">
-        <v>2.003180265426636</v>
+        <v>1.857178211212158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.616639137268066</v>
+        <v>2.566330909729004</v>
       </c>
       <c r="B5" t="n">
-        <v>1.095615148544312</v>
+        <v>1.121026039123535</v>
       </c>
       <c r="C5" t="n">
-        <v>1.697473526000977</v>
+        <v>2.438091278076172</v>
       </c>
       <c r="D5" t="n">
-        <v>1.067320585250854</v>
+        <v>1.370859861373901</v>
       </c>
       <c r="E5" t="n">
-        <v>3.088322877883911</v>
+        <v>4.281493663787842</v>
       </c>
       <c r="F5" t="n">
-        <v>1.350271940231323</v>
+        <v>1.996590256690979</v>
       </c>
       <c r="G5" t="n">
-        <v>2.833157539367676</v>
+        <v>3.059613466262817</v>
       </c>
       <c r="H5" t="n">
-        <v>1.523371458053589</v>
+        <v>4.955414772033691</v>
       </c>
       <c r="I5" t="n">
-        <v>3.576195955276489</v>
+        <v>2.544748783111572</v>
       </c>
       <c r="J5" t="n">
-        <v>1.659817576408386</v>
+        <v>2.757857322692871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.575233221054077</v>
+        <v>2.516535043716431</v>
       </c>
       <c r="B6" t="n">
-        <v>2.616931676864624</v>
+        <v>2.608007907867432</v>
       </c>
       <c r="C6" t="n">
-        <v>4.61418342590332</v>
+        <v>3.752079248428345</v>
       </c>
       <c r="D6" t="n">
-        <v>1.274762272834778</v>
+        <v>2.762852907180786</v>
       </c>
       <c r="E6" t="n">
-        <v>4.17965030670166</v>
+        <v>3.818771123886108</v>
       </c>
       <c r="F6" t="n">
-        <v>4.204244613647461</v>
+        <v>3.681656837463379</v>
       </c>
       <c r="G6" t="n">
-        <v>4.106874465942383</v>
+        <v>3.20653772354126</v>
       </c>
       <c r="H6" t="n">
-        <v>2.072953462600708</v>
+        <v>2.718353748321533</v>
       </c>
       <c r="I6" t="n">
-        <v>4.708207130432129</v>
+        <v>3.981419324874878</v>
       </c>
       <c r="J6" t="n">
-        <v>3.388032913208008</v>
+        <v>2.546130657196045</v>
       </c>
     </row>
   </sheetData>
